--- a/doc/log/log_201608040204_yangmanzhen.xlsx
+++ b/doc/log/log_201608040204_yangmanzhen.xlsx
@@ -1,40 +1,435 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView windowWidth="20385" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="144525"/>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+  <si>
+    <t>日期</t>
+  </si>
+  <si>
+    <t>时间</t>
+  </si>
+  <si>
+    <t>执行情况</t>
+  </si>
+  <si>
+    <t>问题与后续计划</t>
+  </si>
+  <si>
+    <t>9:00-11:00</t>
+  </si>
+  <si>
+    <t>环境配置报错</t>
+  </si>
+  <si>
+    <t>工程是没有问题的，但是就是报错，继续寻找</t>
+  </si>
+  <si>
+    <t>22:00-23:30</t>
+  </si>
+  <si>
+    <t>找到问题，重新拷贝repo后正确</t>
+  </si>
+  <si>
+    <t>资源没有下载完全导致报错的</t>
+  </si>
+  <si>
+    <t>18:00-20:00</t>
+  </si>
+  <si>
+    <t>上传日志</t>
+  </si>
+  <si>
+    <t>日志成功上传到自己的库</t>
+  </si>
+  <si>
+    <t>16:00-18:00</t>
+  </si>
+  <si>
+    <t>小乌龟的安装配置</t>
+  </si>
+  <si>
+    <t>远程仓库刚开始配置错误，导致push不上去。后续继续模块的完成</t>
+  </si>
+  <si>
+    <t>14:00-17:00</t>
+  </si>
+  <si>
+    <t>尝试user的创建</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -42,18 +437,313 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -338,42 +1028,141 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
+    <col min="3" max="3" width="33.375" customWidth="1"/>
+    <col min="4" max="4" width="55.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" ht="46" customHeight="1" spans="1:4">
+      <c r="A2" s="1">
+        <v>43229</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" ht="17" customHeight="1" spans="1:4">
+      <c r="A3" s="1">
+        <v>43232</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" ht="21" customHeight="1" spans="1:4">
+      <c r="A4" s="1">
+        <v>43233</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" ht="21" customHeight="1" spans="1:4">
+      <c r="A5" s="1">
+        <v>43234</v>
+      </c>
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>43235</v>
+      </c>
+      <c r="B6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/doc/log/log_201608040204_yangmanzhen.xlsx
+++ b/doc/log/log_201608040204_yangmanzhen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
   <si>
     <t>日期</t>
   </si>
@@ -70,6 +70,33 @@
   </si>
   <si>
     <t>尝试user的创建</t>
+  </si>
+  <si>
+    <t>能够跑出来，创建表</t>
+  </si>
+  <si>
+    <t>15:00-18:00</t>
+  </si>
+  <si>
+    <t>service的创建</t>
+  </si>
+  <si>
+    <t>成功</t>
+  </si>
+  <si>
+    <t>web下文件的创建</t>
+  </si>
+  <si>
+    <t>修改成功</t>
+  </si>
+  <si>
+    <t>9:30-12:00</t>
+  </si>
+  <si>
+    <t>重新创建自己的包</t>
+  </si>
+  <si>
+    <t>无法实现 ，有可能是因为以前的包里面的路径没有修改干净</t>
   </si>
 </sst>
 </file>
@@ -77,8 +104,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -92,12 +119,111 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -105,8 +231,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -119,121 +261,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -244,25 +271,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -274,13 +433,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -292,139 +451,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,6 +462,30 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -470,17 +521,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -503,11 +547,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,31 +562,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -553,133 +580,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1034,13 +1061,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="11.375" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
@@ -1118,7 +1145,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>43235</v>
       </c>
@@ -1127,6 +1154,51 @@
       </c>
       <c r="C6" t="s">
         <v>17</v>
+      </c>
+      <c r="D6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>43245</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>43252</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>43253</v>
+      </c>
+      <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040204_yangmanzhen.xlsx
+++ b/doc/log/log_201608040204_yangmanzhen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
   <si>
     <t>日期</t>
   </si>
@@ -81,13 +81,10 @@
     <t>service的创建</t>
   </si>
   <si>
-    <t>成功</t>
+    <t>修改成功</t>
   </si>
   <si>
     <t>web下文件的创建</t>
-  </si>
-  <si>
-    <t>修改成功</t>
   </si>
   <si>
     <t>9:30-12:00</t>
@@ -104,10 +101,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -118,6 +115,59 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -126,7 +176,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -134,7 +191,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -148,8 +205,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,45 +221,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -215,50 +237,25 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -271,19 +268,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -295,31 +388,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -331,7 +400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -343,115 +412,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,7 +481,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,6 +518,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -548,15 +554,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -568,10 +565,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -580,133 +577,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="27" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,7 +1061,7 @@
   <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1184,7 +1181,7 @@
         <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1192,13 +1189,13 @@
         <v>43253</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040204_yangmanzhen.xlsx
+++ b/doc/log/log_201608040204_yangmanzhen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
   <si>
     <t>日期</t>
   </si>
@@ -94,6 +94,12 @@
   </si>
   <si>
     <t>无法实现 ，有可能是因为以前的包里面的路径没有修改干净</t>
+  </si>
+  <si>
+    <t>在web页面展示数据库情况</t>
+  </si>
+  <si>
+    <t>可以在web页面展示</t>
   </si>
 </sst>
 </file>
@@ -101,10 +107,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -115,8 +121,37 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -124,7 +159,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -135,20 +170,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -169,45 +190,44 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -223,37 +243,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -268,187 +274,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -459,6 +465,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -480,38 +501,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -536,6 +536,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -550,25 +565,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -577,133 +583,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1058,10 +1064,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1196,6 +1202,20 @@
       </c>
       <c r="D9" t="s">
         <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>43257</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040204_yangmanzhen.xlsx
+++ b/doc/log/log_201608040204_yangmanzhen.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20385" windowHeight="7950"/>
+    <workbookView windowWidth="20385" windowHeight="8370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>日期</t>
   </si>
@@ -100,6 +100,27 @@
   </si>
   <si>
     <t>可以在web页面展示</t>
+  </si>
+  <si>
+    <t>尝试表格的展示</t>
+  </si>
+  <si>
+    <t>失败，404错误</t>
+  </si>
+  <si>
+    <t>继续完成表格的展示</t>
+  </si>
+  <si>
+    <t>可以有页面，但是没有数据</t>
+  </si>
+  <si>
+    <t>22:00-24:00</t>
+  </si>
+  <si>
+    <t>成功完成表格的展示</t>
+  </si>
+  <si>
+    <t>成功，主要是大小写的问题</t>
   </si>
 </sst>
 </file>
@@ -107,10 +128,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -122,6 +143,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -130,34 +180,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -190,6 +227,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -197,7 +241,39 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -205,61 +281,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -274,187 +295,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -465,54 +486,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -551,6 +524,39 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -565,16 +571,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -583,133 +604,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1064,15 +1085,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="11.375" customWidth="1"/>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="33.375" customWidth="1"/>
     <col min="4" max="4" width="55.25" customWidth="1"/>
@@ -1216,6 +1237,48 @@
       </c>
       <c r="D10" t="s">
         <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
+        <v>43261</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>43264</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>43265</v>
+      </c>
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040204_yangmanzhen.xlsx
+++ b/doc/log/log_201608040204_yangmanzhen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>日期</t>
   </si>
@@ -121,6 +121,21 @@
   </si>
   <si>
     <t>成功，主要是大小写的问题</t>
+  </si>
+  <si>
+    <t>13:00-16:30</t>
+  </si>
+  <si>
+    <t>了解jenkins</t>
+  </si>
+  <si>
+    <t>还不是特别熟悉，后续继续</t>
+  </si>
+  <si>
+    <t>了解jenkins和jira</t>
+  </si>
+  <si>
+    <t>继续学习</t>
   </si>
 </sst>
 </file>
@@ -128,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -143,7 +158,36 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,14 +209,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -180,7 +224,46 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -204,83 +287,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -295,19 +310,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -319,163 +442,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -492,34 +507,32 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -548,11 +561,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -572,17 +591,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -592,10 +607,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -604,133 +619,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1085,10 +1100,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1279,6 +1294,34 @@
       </c>
       <c r="D13" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>43270</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>43271</v>
+      </c>
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s">
+        <v>38</v>
+      </c>
+      <c r="D15" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/doc/log/log_201608040204_yangmanzhen.xlsx
+++ b/doc/log/log_201608040204_yangmanzhen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
   <si>
     <t>日期</t>
   </si>
@@ -136,6 +136,27 @@
   </si>
   <si>
     <t>继续学习</t>
+  </si>
+  <si>
+    <t>讨论项目的具体实现需要的功能</t>
+  </si>
+  <si>
+    <t>在脑中有个比较清晰的印象，有什么功能</t>
+  </si>
+  <si>
+    <t>13:30-16:30</t>
+  </si>
+  <si>
+    <t>熟悉jenkins</t>
+  </si>
+  <si>
+    <t>跟着博客一起熟悉</t>
+  </si>
+  <si>
+    <t>熟悉jira</t>
+  </si>
+  <si>
+    <t>可能是端口的问题，无法启动，后续解决</t>
   </si>
 </sst>
 </file>
@@ -143,10 +164,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -165,21 +186,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -187,7 +245,39 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,94 +298,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,43 +331,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -358,139 +493,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,23 +528,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,8 +552,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,6 +590,17 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
@@ -562,42 +609,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
         <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -607,145 +628,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1100,10 +1121,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1323,6 +1344,51 @@
       <c r="D15" t="s">
         <v>39</v>
       </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>43272</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>43273</v>
+      </c>
+      <c r="B17" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+      <c r="D17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>43276</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/log_201608040204_yangmanzhen.xlsx
+++ b/doc/log/log_201608040204_yangmanzhen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
   <si>
     <t>日期</t>
   </si>
@@ -157,6 +157,18 @@
   </si>
   <si>
     <t>可能是端口的问题，无法启动，后续解决</t>
+  </si>
+  <si>
+    <t>完善测试，增加测试</t>
+  </si>
+  <si>
+    <t>测试成功</t>
+  </si>
+  <si>
+    <t>开始着手前端</t>
+  </si>
+  <si>
+    <t>刚开始有些困难</t>
   </si>
 </sst>
 </file>
@@ -165,8 +177,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -179,14 +191,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -201,122 +312,23 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,187 +343,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -522,6 +534,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -558,32 +609,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,40 +634,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,133 +652,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1121,10 +1133,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
@@ -1387,8 +1399,33 @@
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="1"/>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>43277</v>
+      </c>
+      <c r="B19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s">
+        <v>47</v>
+      </c>
+      <c r="D19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>43278</v>
+      </c>
+      <c r="B20" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" t="s">
+        <v>49</v>
+      </c>
+      <c r="D20" t="s">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/log/log_201608040204_yangmanzhen.xlsx
+++ b/doc/log/log_201608040204_yangmanzhen.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57">
   <si>
     <t>日期</t>
   </si>
@@ -169,6 +169,24 @@
   </si>
   <si>
     <t>刚开始有些困难</t>
+  </si>
+  <si>
+    <t>14:00-16:30</t>
+  </si>
+  <si>
+    <t>学习extjs</t>
+  </si>
+  <si>
+    <t>看文档，看api有点困难</t>
+  </si>
+  <si>
+    <t>大致了解extjs基本结构</t>
+  </si>
+  <si>
+    <t>完善注释</t>
+  </si>
+  <si>
+    <t>完善成功</t>
   </si>
 </sst>
 </file>
@@ -191,14 +209,65 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -206,32 +275,56 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -243,61 +336,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -310,29 +351,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -343,187 +361,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -534,6 +552,24 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -548,6 +584,45 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -569,63 +644,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -640,10 +658,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -652,133 +670,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="23" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1133,15 +1151,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="1" max="1" width="16.25" customWidth="1"/>
     <col min="2" max="2" width="17.5" customWidth="1"/>
     <col min="3" max="3" width="33.375" customWidth="1"/>
     <col min="4" max="4" width="55.25" customWidth="1"/>
@@ -1426,6 +1444,85 @@
       <c r="D20" t="s">
         <v>50</v>
       </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>43279</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>43280</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+      <c r="C22" t="s">
+        <v>52</v>
+      </c>
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>43283</v>
+      </c>
+      <c r="B23" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s">
+        <v>52</v>
+      </c>
+      <c r="D23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>43284</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" t="s">
+        <v>52</v>
+      </c>
+      <c r="D24" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>43285</v>
+      </c>
+      <c r="B25" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
+      <c r="A26" s="1"/>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="1"/>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
